--- a/Output_Files/Mixed_Effect_Logistic_Regression/glmer_ASV_acquisition_adj_month.xlsx
+++ b/Output_Files/Mixed_Effect_Logistic_Regression/glmer_ASV_acquisition_adj_month.xlsx
@@ -251,22 +251,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.04407076206413402</v>
+        <v>-0.0440707619851893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02488949846677577</v>
+        <v>0.02488951477754736</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.7706568946321972</v>
+        <v>-1.7706557311010815</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07661777463246325</v>
+        <v>0.07661796823581431</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
       </c>
       <c r="G4" t="n">
-        <v>0.306471098529853</v>
+        <v>0.30647187294325723</v>
       </c>
     </row>
     <row r="5">
@@ -975,22 +975,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017339061374294903</v>
+        <v>0.0173390240484313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.026094623224795152</v>
+        <v>0.026094565123558823</v>
       </c>
       <c r="D2" t="n">
-        <v>0.664468738441845</v>
+        <v>0.6644687875168763</v>
       </c>
       <c r="E2" t="n">
-        <v>0.506390350851856</v>
+        <v>0.5063903194521145</v>
       </c>
       <c r="F2" t="e">
         <v>#N/A</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6771139041804157</v>
+        <v>0.6771109390421763</v>
       </c>
     </row>
     <row r="3">
@@ -998,22 +998,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04827230553370448</v>
+        <v>0.048272385592605854</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021347557465168972</v>
+        <v>0.021347672795546658</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2612566150701956</v>
+        <v>2.2612481489165397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.023743371109859426</v>
+        <v>0.0237438950665611</v>
       </c>
       <c r="F3" t="e">
         <v>#N/A</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15195757510310035</v>
+        <v>0.15196092842599107</v>
       </c>
     </row>
     <row r="4">
@@ -1021,22 +1021,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.03275363004593124</v>
+        <v>-0.032753630037598666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.025636021557741143</v>
+        <v>0.025635981224949093</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.2776409152316708</v>
+        <v>-1.2776429250042762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2013760670477645</v>
+        <v>0.20137535808637147</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
       </c>
       <c r="G4" t="n">
-        <v>0.49569493427142036</v>
+        <v>0.49569318913568367</v>
       </c>
     </row>
     <row r="5">
@@ -1044,22 +1044,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04866235717670728</v>
+        <v>0.04866230850496222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.020551741651976152</v>
+        <v>0.02055166020041992</v>
       </c>
       <c r="D5" t="n">
-        <v>2.367797240776825</v>
+        <v>2.3678042567075885</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01789433956185882</v>
+        <v>0.01789400025424201</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
       </c>
       <c r="G5" t="n">
-        <v>0.14476058723179916</v>
+        <v>0.14475842006321726</v>
       </c>
     </row>
     <row r="6">
@@ -1067,22 +1067,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03214854172673244</v>
+        <v>0.03214854172244751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.023386849136860233</v>
+        <v>0.02338687174847349</v>
       </c>
       <c r="D6" t="n">
-        <v>1.3746418569940155</v>
+        <v>1.374640527737358</v>
       </c>
       <c r="E6" t="n">
-        <v>0.16924250516115896</v>
+        <v>0.16924291746666922</v>
       </c>
       <c r="F6" t="e">
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
-        <v>0.49569493427142036</v>
+        <v>0.49569318913568367</v>
       </c>
     </row>
     <row r="7">
@@ -1090,22 +1090,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.06373745509597395</v>
+        <v>-0.0637374882590907</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02114901061516951</v>
+        <v>0.021148993213234928</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.013732238152886</v>
+        <v>-3.013736285999852</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0025805544979130555</v>
+        <v>0.0025805200705408516</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04863736355020687</v>
+        <v>0.04863753298894134</v>
       </c>
     </row>
     <row r="8">
@@ -1113,22 +1113,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.030827178727123063</v>
+        <v>0.03082717949185692</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02842327914250324</v>
+        <v>0.028423292129294363</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0845750264270215</v>
+        <v>1.0845745577826644</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2781099208543167</v>
+        <v>0.27811012851420486</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5369521130856375</v>
+        <v>0.5369518602781154</v>
       </c>
     </row>
     <row r="9">
@@ -1136,22 +1136,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1141349739035656</v>
+        <v>0.11413488025117983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.038511224812613855</v>
+        <v>0.03851120714413978</v>
       </c>
       <c r="D9" t="n">
-        <v>2.9636807050131044</v>
+        <v>2.9636796328922044</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0030398352218879293</v>
+        <v>0.003039845811808834</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04863736355020687</v>
+        <v>0.04863753298894134</v>
       </c>
     </row>
     <row r="10">
@@ -1159,22 +1159,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.05516064892906759</v>
+        <v>-0.05516065039624099</v>
       </c>
       <c r="C10" t="n">
-        <v>0.023336896001931454</v>
+        <v>0.023336841857303846</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.363666912879171</v>
+        <v>-2.3636724597753185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.018095073403974895</v>
+        <v>0.018094802507902158</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
       </c>
       <c r="G10" t="n">
-        <v>0.14476058723179916</v>
+        <v>0.14475842006321726</v>
       </c>
     </row>
     <row r="11">
@@ -1182,22 +1182,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.033186005410318624</v>
+        <v>-0.03318600524065329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.025420461395697973</v>
+        <v>0.025420464429783702</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.305483991566528</v>
+        <v>-1.3054838290747806</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1917280947188028</v>
+        <v>0.1917281500143145</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
       </c>
       <c r="G11" t="n">
-        <v>0.49569493427142036</v>
+        <v>0.49569318913568367</v>
       </c>
     </row>
     <row r="12">
@@ -1205,22 +1205,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.007976489817622034</v>
+        <v>0.007976489873437954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03271027316507464</v>
+        <v>0.03271022616500456</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24385274245091537</v>
+        <v>0.2438530945399485</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8073448704598098</v>
+        <v>0.8073445977629968</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8126547357825388</v>
+        <v>0.8126543515979123</v>
       </c>
     </row>
     <row r="13">
@@ -1228,22 +1228,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00978757973473931</v>
+        <v>0.009787579751871153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02774276939810238</v>
+        <v>0.027742756308618284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3527975017306234</v>
+        <v>0.3527976688037534</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7242402568329174</v>
+        <v>0.7242401315709605</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8126547357825388</v>
+        <v>0.8126543515979123</v>
       </c>
     </row>
     <row r="14">
@@ -1251,22 +1251,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.06115594298716053</v>
+        <v>-0.061155942944368144</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03535074698973661</v>
+        <v>0.03535076341938196</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.7299759749041783</v>
+        <v>-1.7299751696688348</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08363456776607374</v>
+        <v>0.08363471163972519</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
       </c>
       <c r="G14" t="n">
-        <v>0.33453827106429496</v>
+        <v>0.33453884655890076</v>
       </c>
     </row>
     <row r="15">
@@ -1274,22 +1274,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.015724389659844958</v>
+        <v>0.015724828297047456</v>
       </c>
       <c r="C15" t="n">
-        <v>0.034471109045795305</v>
+        <v>0.03447113825905134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.45616140864382715</v>
+        <v>0.45617374682770945</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6482739140542728</v>
+        <v>0.6482650423842853</v>
       </c>
       <c r="F15" t="e">
         <v>#N/A</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7818095092409404</v>
+        <v>0.7818053492681711</v>
       </c>
     </row>
     <row r="16">
@@ -1297,22 +1297,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.037716925839039614</v>
+        <v>0.03771691261332146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.035296074095499896</v>
+        <v>0.03529605187808707</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0685869974374393</v>
+        <v>1.0685872953608542</v>
       </c>
       <c r="E16" t="n">
-        <v>0.28525581007674494</v>
+        <v>0.2852556757727488</v>
       </c>
       <c r="F16" t="e">
         <v>#N/A</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5369521130856375</v>
+        <v>0.5369518602781154</v>
       </c>
     </row>
     <row r="17">
@@ -1320,22 +1320,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04343699641487816</v>
+        <v>0.0434364111339079</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0540026053458603</v>
+        <v>0.05400247441409811</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8043500149054924</v>
+        <v>0.8043411270533968</v>
       </c>
       <c r="E17" t="n">
-        <v>0.421194860247711</v>
+        <v>0.4211999917997743</v>
       </c>
       <c r="F17" t="e">
         <v>#N/A</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6418207394250834</v>
+        <v>0.6418285589329894</v>
       </c>
     </row>
     <row r="18">
@@ -1343,22 +1343,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.008500864755642908</v>
+        <v>-0.008500853971814692</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0308649652752643</v>
+        <v>0.030864856747893542</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.27542116700373037</v>
+        <v>-0.2754217860542916</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7829926837823791</v>
+        <v>0.7829922082347212</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8126547357825388</v>
+        <v>0.8126543515979123</v>
       </c>
     </row>
     <row r="19">
@@ -1366,22 +1366,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.03128776352079451</v>
+        <v>-0.03128755584064982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05561596751543645</v>
+        <v>0.05561603585758726</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5625679983380754</v>
+        <v>-0.5625635728653161</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5737290884576958</v>
+        <v>0.5737321026913699</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7343732332258506</v>
+        <v>0.7343770914449534</v>
       </c>
     </row>
     <row r="20">
@@ -1389,22 +1389,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02709994241469737</v>
+        <v>-0.027099942667034506</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03322872700709818</v>
+        <v>0.03322870827393388</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8155576471198669</v>
+        <v>-0.8155581144962214</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4147531811421845</v>
+        <v>0.41475291373403256</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6418207394250834</v>
+        <v>0.6418285589329894</v>
       </c>
     </row>
     <row r="21">
@@ -1412,22 +1412,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.07170016602008662</v>
+        <v>-0.07170016179370471</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04503617174811315</v>
+        <v>0.04503614281936112</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.592057300542882</v>
+        <v>-1.592058229349088</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11137183014827565</v>
+        <v>0.1113716214718612</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
       </c>
       <c r="G21" t="n">
-        <v>0.39598872941609115</v>
+        <v>0.3959879874555065</v>
       </c>
     </row>
     <row r="22">
@@ -1435,22 +1435,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.07309858106529638</v>
+        <v>-0.07309842601123485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.039440067780763574</v>
+        <v>0.03944005061986195</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.8534091135854829</v>
+        <v>-1.8534059886429912</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06382374205459285</v>
+        <v>0.06382418961881087</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
       </c>
       <c r="G22" t="n">
-        <v>0.291765677963853</v>
+        <v>0.2917677239717068</v>
       </c>
     </row>
     <row r="23">
@@ -1458,22 +1458,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.049914823930228946</v>
+        <v>-0.04991515752432921</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03820970299944451</v>
+        <v>0.03820970851930751</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.3063389665958567</v>
+        <v>-1.306347508490071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1914373113548119</v>
+        <v>0.19143440783099566</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
       </c>
       <c r="G23" t="n">
-        <v>0.49569493427142036</v>
+        <v>0.49569318913568367</v>
       </c>
     </row>
     <row r="24">
@@ -1481,22 +1481,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.040085435348612926</v>
+        <v>-0.04008623065270256</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04192270062843455</v>
+        <v>0.04192263982768159</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.9561749302339679</v>
+        <v>-0.956195287736474</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3389838634528861</v>
+        <v>0.3389735802355295</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5983678010689026</v>
+        <v>0.5983661652597184</v>
       </c>
     </row>
     <row r="25">
@@ -1504,22 +1504,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.042259771671912895</v>
+        <v>-0.04225976900462771</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03943936763678988</v>
+        <v>0.03943936591270024</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.071512405094753</v>
+        <v>-1.0715123843058352</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2839390959193964</v>
+        <v>0.2839391052617601</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5369521130856375</v>
+        <v>0.5369518602781154</v>
       </c>
     </row>
     <row r="26">
@@ -1527,22 +1527,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.08569372820253261</v>
+        <v>-0.08569372975638874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04248958874691638</v>
+        <v>0.04248946162397918</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.0168170775423593</v>
+        <v>-2.0168231481668615</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04371460610730091</v>
+        <v>0.043713972364163876</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
       </c>
       <c r="G26" t="n">
-        <v>0.23314456590560484</v>
+        <v>0.23314118594220734</v>
       </c>
     </row>
     <row r="27">
@@ -1550,22 +1550,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029264314883654927</v>
+        <v>0.02926430863723972</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04419176828267037</v>
+        <v>0.04419152725293501</v>
       </c>
       <c r="D27" t="n">
-        <v>0.662211901014398</v>
+        <v>0.6622153715064489</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5078354281353118</v>
+        <v>0.5078332042816323</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6771139041804157</v>
+        <v>0.6771109390421763</v>
       </c>
     </row>
     <row r="28">
@@ -1573,22 +1573,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.009535687848618348</v>
+        <v>-0.009535685589279941</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04023452024395595</v>
+        <v>0.04023442664084717</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2370026482433528</v>
+        <v>-0.23700314346219695</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8126547357825388</v>
+        <v>0.8126543515979123</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8126547357825388</v>
+        <v>0.8126543515979123</v>
       </c>
     </row>
     <row r="29">
@@ -1596,22 +1596,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>0.014662729702881794</v>
+        <v>0.014662730083245071</v>
       </c>
       <c r="C29" t="n">
-        <v>0.045435747325314815</v>
+        <v>0.04543573607229719</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32271351449109675</v>
+        <v>0.32271360278864597</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7469122162431379</v>
+        <v>0.746912149366548</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8126547357825388</v>
+        <v>0.8126543515979123</v>
       </c>
     </row>
     <row r="30">
@@ -1619,22 +1619,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>0.049545359416093976</v>
+        <v>0.04954533066863955</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04161320009718522</v>
+        <v>0.04161329997506095</v>
       </c>
       <c r="D30" t="n">
-        <v>1.1906164222021776</v>
+        <v>1.190612873728647</v>
       </c>
       <c r="E30" t="n">
-        <v>0.23380420170349983</v>
+        <v>0.23380559537906262</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5344096038937138</v>
+        <v>0.5344127894378574</v>
       </c>
     </row>
     <row r="31">
@@ -1642,22 +1642,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>0.030746797657644154</v>
+        <v>0.030746794849084106</v>
       </c>
       <c r="C31" t="n">
-        <v>0.043755215987626224</v>
+        <v>0.04375521759911635</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7027001687373503</v>
+        <v>0.7027000786691333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4822426225017565</v>
+        <v>0.482242678643648</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6771139041804157</v>
+        <v>0.6771109390421763</v>
       </c>
     </row>
     <row r="32">
@@ -1665,22 +1665,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.04518667713514239</v>
+        <v>-0.04518667557797121</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04888245230524988</v>
+        <v>0.048882351937171616</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9243946447893211</v>
+        <v>-0.9243965109544964</v>
       </c>
       <c r="E32" t="n">
-        <v>0.35528088188466095</v>
+        <v>0.35527991062295783</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5983678010689026</v>
+        <v>0.5983661652597184</v>
       </c>
     </row>
     <row r="33">
@@ -1688,22 +1688,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.016195894951041265</v>
+        <v>-0.016195894525604868</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03677592141640803</v>
+        <v>0.03677551569083884</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.44039399496365217</v>
+        <v>-0.44039884203824864</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6596517734220435</v>
+        <v>0.6596482634450195</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7818095092409404</v>
+        <v>0.7818053492681711</v>
       </c>
     </row>
   </sheetData>
@@ -1745,22 +1745,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.02566414552059948</v>
+        <v>-0.02566414514137548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02647591201133271</v>
+        <v>0.02647644252002558</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9693394323721214</v>
+        <v>-0.9693199953870043</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33237586105191375</v>
+        <v>0.33238555581935286</v>
       </c>
       <c r="F2" t="e">
         <v>#N/A</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6256486796271318</v>
+        <v>0.6256669286011348</v>
       </c>
     </row>
     <row r="3">
@@ -1852,7 +1852,7 @@
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6256486796271318</v>
+        <v>0.6256669286011348</v>
       </c>
     </row>
     <row r="7">
@@ -2013,7 +2013,7 @@
         <v>#N/A</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6256486796271318</v>
+        <v>0.6256669286011348</v>
       </c>
     </row>
     <row r="14">
@@ -2515,22 +2515,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07825318537925857</v>
+        <v>0.07825318541414587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.020852514641919315</v>
+        <v>0.020852547469002624</v>
       </c>
       <c r="D2" t="n">
-        <v>3.752697778806401</v>
+        <v>3.752691872802087</v>
       </c>
       <c r="E2" t="n">
-        <v>1.749417132353544E-4</v>
+        <v>1.7494583620714747E-4</v>
       </c>
       <c r="F2" t="e">
         <v>#N/A</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005598134823531341</v>
+        <v>0.005598266758628719</v>
       </c>
     </row>
     <row r="3">
@@ -2538,22 +2538,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0495964987600071</v>
+        <v>0.049596498593036054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.022817156534965147</v>
+        <v>0.022817067209530775</v>
       </c>
       <c r="D3" t="n">
-        <v>2.173649406489592</v>
+        <v>2.173657908686854</v>
       </c>
       <c r="E3" t="n">
-        <v>0.029731474950910157</v>
+        <v>0.02973083595155433</v>
       </c>
       <c r="F3" t="e">
         <v>#N/A</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11892589980364063</v>
+        <v>0.11892334380621732</v>
       </c>
     </row>
     <row r="4">
@@ -2561,22 +2561,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08513014026365565</v>
+        <v>-0.08513013761595421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.026688668469006617</v>
+        <v>0.026688673329792384</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.1897485017851954</v>
+        <v>-3.1897478216320336</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0014239665546127726</v>
+        <v>0.0014239699056837539</v>
       </c>
       <c r="F4" t="e">
         <v>#N/A</v>
       </c>
       <c r="G4" t="n">
-        <v>0.015188976582536241</v>
+        <v>0.015189012327293375</v>
       </c>
     </row>
     <row r="5">
@@ -2584,22 +2584,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.045259048094314774</v>
+        <v>0.04525904800106933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.022019665404348295</v>
+        <v>0.022019776204035262</v>
       </c>
       <c r="D5" t="n">
-        <v>2.055392180726657</v>
+        <v>2.055381834115795</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03984114013808367</v>
+        <v>0.039842138698905676</v>
       </c>
       <c r="F5" t="e">
         <v>#N/A</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1416573871576308</v>
+        <v>0.14166093759610907</v>
       </c>
     </row>
     <row r="6">
@@ -2607,22 +2607,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10834966737244246</v>
+        <v>0.1083496673146804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03611940617431106</v>
+        <v>0.03611942701659032</v>
       </c>
       <c r="D6" t="n">
-        <v>2.9997632532924423</v>
+        <v>2.9997615207160786</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0027018952596589356</v>
+        <v>0.002701910627641108</v>
       </c>
       <c r="F6" t="e">
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01538001562662851</v>
+        <v>0.015379419741347811</v>
       </c>
     </row>
     <row r="7">
@@ -2630,22 +2630,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.041246883614772724</v>
+        <v>-0.04124688359653681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02261117262517729</v>
+        <v>0.022611275230099998</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.8241815362041318</v>
+        <v>-1.8241732576687757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06812463200886021</v>
+        <v>0.06812588315885348</v>
       </c>
       <c r="F7" t="e">
         <v>#N/A</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21799882242835267</v>
+        <v>0.21800282610833116</v>
       </c>
     </row>
     <row r="8">
@@ -2653,22 +2653,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04207626141747542</v>
+        <v>0.042076261422332006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.028147451649759018</v>
+        <v>0.028147467185335794</v>
       </c>
       <c r="D8" t="n">
-        <v>1.494851538996627</v>
+        <v>1.494850714108046</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1349531920913288</v>
+        <v>0.13495340742031478</v>
       </c>
       <c r="F8" t="e">
         <v>#N/A</v>
       </c>
       <c r="G8" t="n">
-        <v>0.27294398020661126</v>
+        <v>0.27294395885105127</v>
       </c>
     </row>
     <row r="9">
@@ -2676,22 +2676,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.055821390261502395</v>
+        <v>0.05582139022246779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03704108287758762</v>
+        <v>0.03704108638988326</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5070129144436581</v>
+        <v>1.5070127704924403</v>
       </c>
       <c r="E9" t="n">
-        <v>0.13180734696226243</v>
+        <v>0.13180738385959537</v>
       </c>
       <c r="F9" t="e">
         <v>#N/A</v>
       </c>
       <c r="G9" t="n">
-        <v>0.27294398020661126</v>
+        <v>0.27294395885105127</v>
       </c>
     </row>
     <row r="10">
@@ -2699,22 +2699,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.08765000271790907</v>
+        <v>-0.08765000277155903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02541105901825418</v>
+        <v>0.02541110377043992</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.4492857088303635</v>
+        <v>-3.4492796363108007</v>
       </c>
       <c r="E10" t="n">
-        <v>5.620716529452536E-4</v>
+        <v>5.620842941544969E-4</v>
       </c>
       <c r="F10" t="e">
         <v>#N/A</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008993146447124057</v>
+        <v>0.00899334870647195</v>
       </c>
     </row>
     <row r="11">
@@ -2722,22 +2722,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.08336545215950271</v>
+        <v>-0.08336545219276398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.027976249831899884</v>
+        <v>0.027976138412952763</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.9798651592124887</v>
+        <v>-2.9798770281378912</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0028837529299928456</v>
+        <v>0.002883641201502715</v>
       </c>
       <c r="F11" t="e">
         <v>#N/A</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01538001562662851</v>
+        <v>0.015379419741347811</v>
       </c>
     </row>
     <row r="12">
@@ -2745,22 +2745,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.05721079833520057</v>
+        <v>-0.057211095150945836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03494391425397273</v>
+        <v>0.03494391252758509</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.6372177976225528</v>
+        <v>-1.6372263725701237</v>
       </c>
       <c r="E12" t="n">
-        <v>0.10158496957346201</v>
+        <v>0.10158317851735778</v>
       </c>
       <c r="F12" t="e">
         <v>#N/A</v>
       </c>
       <c r="G12" t="n">
-        <v>0.27294398020661126</v>
+        <v>0.27294395885105127</v>
       </c>
     </row>
     <row r="13">
@@ -2768,22 +2768,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.029919770656629045</v>
+        <v>-0.029919770663210405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.028887487339043647</v>
+        <v>0.028887496399709105</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.0357346177419242</v>
+        <v>-1.0357342931079239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.30032596752871604</v>
+        <v>0.30032611902091205</v>
       </c>
       <c r="F13" t="e">
         <v>#N/A</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4805215480459457</v>
+        <v>0.48052179043345933</v>
       </c>
     </row>
     <row r="14">
@@ -2791,22 +2791,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.06158030916801768</v>
+        <v>-0.06158081486872867</v>
       </c>
       <c r="C14" t="n">
-        <v>0.038111084956485346</v>
+        <v>0.038111104396217996</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.615810970438893</v>
+        <v>-1.6158234153623667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.10613518893791926</v>
+        <v>0.10613249746436433</v>
       </c>
       <c r="F14" t="e">
         <v>#N/A</v>
       </c>
       <c r="G14" t="n">
-        <v>0.27294398020661126</v>
+        <v>0.27294395885105127</v>
       </c>
     </row>
     <row r="15">
@@ -2814,22 +2814,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.010814305356237012</v>
+        <v>-0.010814305320784198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03539099570572763</v>
+        <v>0.03539092599889331</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3055665753559694</v>
+        <v>-0.3055671762056287</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7599346729130757</v>
+        <v>0.7599342153714609</v>
       </c>
       <c r="F15" t="e">
         <v>#N/A</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8566181277175805</v>
+        <v>0.8566174712635852</v>
       </c>
     </row>
     <row r="16">
@@ -2837,22 +2837,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05261952145916006</v>
+        <v>0.052619521560491954</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03533744636114329</v>
+        <v>0.03533744546682043</v>
       </c>
       <c r="D16" t="n">
-        <v>1.4890584034114012</v>
+        <v>1.489058443964159</v>
       </c>
       <c r="E16" t="n">
-        <v>0.13647199010330563</v>
+        <v>0.13647197942552564</v>
       </c>
       <c r="F16" t="e">
         <v>#N/A</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27294398020661126</v>
+        <v>0.27294395885105127</v>
       </c>
     </row>
     <row r="17">
@@ -2860,22 +2860,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>0.034876264697802306</v>
+        <v>0.034876241854773435</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05032932873378545</v>
+        <v>0.050329232995670145</v>
       </c>
       <c r="D17" t="n">
-        <v>0.692961054225035</v>
+        <v>0.6929619185290159</v>
       </c>
       <c r="E17" t="n">
-        <v>0.48833399264975874</v>
+        <v>0.4883334502325988</v>
       </c>
       <c r="F17" t="e">
         <v>#N/A</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6511119901996782</v>
+        <v>0.6511112669767983</v>
       </c>
     </row>
     <row r="18">
@@ -2883,22 +2883,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.042796497056935966</v>
+        <v>-0.04279649708581683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03403143187785218</v>
+        <v>0.03403102141045125</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.2575579308723748</v>
+        <v>-1.2575730998386554</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2085516758111757</v>
+        <v>0.20854618692812435</v>
       </c>
       <c r="F18" t="e">
         <v>#N/A</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3925678603504484</v>
+        <v>0.3925575283352929</v>
       </c>
     </row>
     <row r="19">
@@ -2906,22 +2906,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>0.018967778022666176</v>
+        <v>0.018967778353373488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.053785250817690866</v>
+        <v>0.05378500067668155</v>
       </c>
       <c r="D19" t="n">
-        <v>0.35265761029838605</v>
+        <v>0.3526592565721944</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7243451420854967</v>
+        <v>0.7243439077421838</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8566181277175805</v>
+        <v>0.8566174712635852</v>
       </c>
     </row>
     <row r="20">
@@ -2929,22 +2929,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.026337145310530316</v>
+        <v>-0.026337145439901954</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03459199604656606</v>
+        <v>0.034591940521479556</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7613652960377462</v>
+        <v>-0.7613665218795153</v>
       </c>
       <c r="E20" t="n">
-        <v>0.44643890976150147</v>
+        <v>0.44643817778188366</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6211323961899151</v>
+        <v>0.6211313777834903</v>
       </c>
     </row>
     <row r="21">
@@ -2952,22 +2952,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.019465509511195894</v>
+        <v>-0.019465509493174372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04778243307915541</v>
+        <v>0.0477824740544379</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.40737794743414857</v>
+        <v>-0.4073775977149612</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6837304211974888</v>
+        <v>0.6837306780137348</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8415143645507556</v>
+        <v>0.841514680632289</v>
       </c>
     </row>
     <row r="22">
@@ -2975,22 +2975,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0477667531957667</v>
+        <v>-0.04776672655145901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.040380937113168515</v>
+        <v>0.040380936375137594</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.1829035334642992</v>
+        <v>-1.182902895259973</v>
       </c>
       <c r="E22" t="n">
-        <v>0.23684738111741324</v>
+        <v>0.23684763407887002</v>
       </c>
       <c r="F22" t="e">
         <v>#N/A</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3989008524082749</v>
+        <v>0.39890127844862316</v>
       </c>
     </row>
     <row r="23">
@@ -2998,22 +2998,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.05144185657499609</v>
+        <v>-0.051441856549549886</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04260143709260676</v>
+        <v>0.04260145537552115</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.2075145836787635</v>
+        <v>-1.2075140648624048</v>
       </c>
       <c r="E23" t="n">
-        <v>0.22723403212608526</v>
+        <v>0.22723423180551103</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3989008524082749</v>
+        <v>0.39890127844862316</v>
       </c>
     </row>
     <row r="24">
@@ -3021,22 +3021,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01288178391531598</v>
+        <v>-0.012881824482500952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04533752035191484</v>
+        <v>0.04533753925375335</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2841307556153524</v>
+        <v>-0.28413153193872354</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7763101782440573</v>
+        <v>0.7763095833326241</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8566181277175805</v>
+        <v>0.8566174712635852</v>
       </c>
     </row>
     <row r="25">
@@ -3044,22 +3044,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.131300162147827</v>
+        <v>-0.13130016196116306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04265892816614078</v>
+        <v>0.04265893633940873</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.0779057935178615</v>
+        <v>-3.077905199428677</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0020846080403460897</v>
+        <v>0.0020846121960713952</v>
       </c>
       <c r="F25" t="e">
         <v>#N/A</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01538001562662851</v>
+        <v>0.015379419741347811</v>
       </c>
     </row>
     <row r="26">
@@ -3067,22 +3067,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.11956024453909014</v>
+        <v>-0.1195602465633918</v>
       </c>
       <c r="C26" t="n">
-        <v>0.048698963457379056</v>
+        <v>0.04869925366354436</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.455088076848459</v>
+        <v>-2.4550734881773573</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01408500737589736</v>
+        <v>0.014085579009583633</v>
       </c>
       <c r="F26" t="e">
         <v>#N/A</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06438860514695936</v>
+        <v>0.06439121832952517</v>
       </c>
     </row>
     <row r="27">
@@ -3090,22 +3090,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.04311496310257114</v>
+        <v>-0.043116716699310186</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04871545692103951</v>
+        <v>0.04871564063857493</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8850366152257191</v>
+        <v>-0.8850692741412642</v>
       </c>
       <c r="E27" t="n">
-        <v>0.37613688352164637</v>
+        <v>0.37611926999489054</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5471081942133038</v>
+        <v>0.5470825745380227</v>
       </c>
     </row>
     <row r="28">
@@ -3113,22 +3113,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.07235064935008244</v>
+        <v>-0.07235074415071599</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04654473911040776</v>
+        <v>0.04654406351507104</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.5544323748052609</v>
+        <v>-1.5544569744600987</v>
       </c>
       <c r="E28" t="n">
-        <v>0.12008131579303677</v>
+        <v>0.12007545202775971</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="n">
-        <v>0.27294398020661126</v>
+        <v>0.27294395885105127</v>
       </c>
     </row>
     <row r="29">
@@ -3136,22 +3136,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02592755382241812</v>
+        <v>0.025927524145451127</v>
       </c>
       <c r="C29" t="n">
-        <v>0.047282961416510304</v>
+        <v>0.047282972414481476</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5483487718551553</v>
+        <v>0.548348016663822</v>
       </c>
       <c r="E29" t="n">
-        <v>0.583452444588709</v>
+        <v>0.5834529630351909</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7468191290735476</v>
+        <v>0.7468197926850444</v>
       </c>
     </row>
     <row r="30">
@@ -3159,22 +3159,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.04247809373712873</v>
+        <v>-0.04247809404012977</v>
       </c>
       <c r="C30" t="n">
-        <v>0.045837615864438595</v>
+        <v>0.045837562398653234</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.9267081835746996</v>
+        <v>-0.9267092711146836</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3540780674183354</v>
+        <v>0.3540775026093225</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5395475313041301</v>
+        <v>0.5395466706427772</v>
       </c>
     </row>
     <row r="31">
@@ -3182,22 +3182,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006248476559670065</v>
+        <v>0.006248476472506498</v>
       </c>
       <c r="C31" t="n">
-        <v>0.048744351532194106</v>
+        <v>0.04874418932388084</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12818873086337282</v>
+        <v>0.12818915565481018</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8979996179611663</v>
+        <v>0.8979992817999829</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9269673475728168</v>
+        <v>0.9269670005677243</v>
       </c>
     </row>
     <row r="32">
@@ -3205,22 +3205,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0016434307504762026</v>
+        <v>-0.0016434282572773647</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04917560964019071</v>
+        <v>0.04917569918715444</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03341963144942984</v>
+        <v>-0.03341951989381489</v>
       </c>
       <c r="E32" t="n">
-        <v>0.973339954773095</v>
+        <v>0.9733400437319063</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="n">
-        <v>0.973339954773095</v>
+        <v>0.9733400437319063</v>
       </c>
     </row>
     <row r="33">
@@ -3228,22 +3228,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0060337213281612834</v>
+        <v>0.006033719547338963</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03777904679523436</v>
+        <v>0.03777857970151138</v>
       </c>
       <c r="D33" t="n">
-        <v>0.15971078785720996</v>
+        <v>0.15971271538028667</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8731089025108272</v>
+        <v>0.8731073840601492</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9269673475728168</v>
+        <v>0.9269670005677243</v>
       </c>
     </row>
   </sheetData>
